--- a/predictions/Прогнозы_ETS_CA12dt.xlsx
+++ b/predictions/Прогнозы_ETS_CA12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16959388.84690348</v>
+        <v>19167371.30809424</v>
       </c>
       <c r="C2" t="n">
-        <v>20401811.02090278</v>
+        <v>20311187.30971999</v>
       </c>
       <c r="D2" t="n">
-        <v>21545092.02769854</v>
+        <v>19095063.81462114</v>
       </c>
       <c r="E2" t="n">
-        <v>20327822.95504644</v>
+        <v>17882503.08315018</v>
       </c>
       <c r="F2" t="n">
-        <v>19113513.65732953</v>
+        <v>18480329.51487024</v>
       </c>
       <c r="G2" t="n">
-        <v>19709020.0423462</v>
+        <v>18442567.58722844</v>
       </c>
       <c r="H2" t="n">
-        <v>19668395.90682822</v>
+        <v>19939903.83645407</v>
       </c>
       <c r="I2" t="n">
-        <v>21162337.23836115</v>
+        <v>19305106.49613254</v>
       </c>
       <c r="J2" t="n">
-        <v>20523622.32593246</v>
+        <v>19955982.51397996</v>
       </c>
       <c r="K2" t="n">
-        <v>21170078.00092798</v>
+        <v>20110997.65418522</v>
       </c>
       <c r="L2" t="n">
-        <v>21320194.07690011</v>
+        <v>20638345.83495868</v>
       </c>
       <c r="M2" t="n">
-        <v>21842179.06481838</v>
+        <v>16178381.44258007</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14083380.19891339</v>
+        <v>13278581.5753585</v>
       </c>
       <c r="C3" t="n">
-        <v>14564485.92534615</v>
+        <v>15404873.07691983</v>
       </c>
       <c r="D3" t="n">
-        <v>17263020.71015389</v>
+        <v>13344690.02621015</v>
       </c>
       <c r="E3" t="n">
-        <v>15710279.49138451</v>
+        <v>14106683.40075505</v>
       </c>
       <c r="F3" t="n">
-        <v>16935594.56367827</v>
+        <v>13131077.04107633</v>
       </c>
       <c r="G3" t="n">
-        <v>16371404.00659645</v>
+        <v>12494153.53558991</v>
       </c>
       <c r="H3" t="n">
-        <v>16104091.54904514</v>
+        <v>13015561.25587274</v>
       </c>
       <c r="I3" t="n">
-        <v>16954235.69872234</v>
+        <v>13931485.90447229</v>
       </c>
       <c r="J3" t="n">
-        <v>18156646.36609149</v>
+        <v>13750544.16863911</v>
       </c>
       <c r="K3" t="n">
-        <v>18222603.85994285</v>
+        <v>14693498.43114335</v>
       </c>
       <c r="L3" t="n">
-        <v>19380762.02682166</v>
+        <v>14457598.97428792</v>
       </c>
       <c r="M3" t="n">
-        <v>19327402.64426651</v>
+        <v>12246952.79239167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25105563.45139218</v>
+        <v>61714509.4161692</v>
       </c>
       <c r="C4" t="n">
-        <v>26809119.31058973</v>
+        <v>69595781.26794352</v>
       </c>
       <c r="D4" t="n">
-        <v>27912677.69899762</v>
+        <v>77942498.46763918</v>
       </c>
       <c r="E4" t="n">
-        <v>29572265.74549947</v>
+        <v>85658970.54657437</v>
       </c>
       <c r="F4" t="n">
-        <v>30621977.77749802</v>
+        <v>93782597.76416583</v>
       </c>
       <c r="G4" t="n">
-        <v>31989785.12683918</v>
+        <v>101483946.0720329</v>
       </c>
       <c r="H4" t="n">
-        <v>33187499.66626019</v>
+        <v>109837634.8541083</v>
       </c>
       <c r="I4" t="n">
-        <v>34682724.62845754</v>
+        <v>117492454.112708</v>
       </c>
       <c r="J4" t="n">
-        <v>34932289.39078861</v>
+        <v>126057448.3960756</v>
       </c>
       <c r="K4" t="n">
-        <v>37977137.36880746</v>
+        <v>130596975.9846338</v>
       </c>
       <c r="L4" t="n">
-        <v>37119782.40742241</v>
+        <v>139324472.7675335</v>
       </c>
       <c r="M4" t="n">
-        <v>38918210.12326948</v>
+        <v>147127684.7934716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20836671.05342296</v>
+        <v>30778911.29870907</v>
       </c>
       <c r="C5" t="n">
-        <v>23302957.12651638</v>
+        <v>31370380.59605231</v>
       </c>
       <c r="D5" t="n">
-        <v>25662527.44926322</v>
+        <v>32172796.92349058</v>
       </c>
       <c r="E5" t="n">
-        <v>27937478.26656038</v>
+        <v>33710801.09390426</v>
       </c>
       <c r="F5" t="n">
-        <v>30258001.6880025</v>
+        <v>34870893.66883648</v>
       </c>
       <c r="G5" t="n">
-        <v>32714258.71526545</v>
+        <v>35147003.79557133</v>
       </c>
       <c r="H5" t="n">
-        <v>34996630.78747852</v>
+        <v>36343032.6951979</v>
       </c>
       <c r="I5" t="n">
-        <v>37711687.41235823</v>
+        <v>37246098.39543299</v>
       </c>
       <c r="J5" t="n">
-        <v>41072962.75426889</v>
+        <v>38253779.6269012</v>
       </c>
       <c r="K5" t="n">
-        <v>42604499.37302408</v>
+        <v>41165749.8190825</v>
       </c>
       <c r="L5" t="n">
-        <v>44219691.15130971</v>
+        <v>55462959.66239958</v>
       </c>
       <c r="M5" t="n">
-        <v>47363259.82405544</v>
+        <v>29338721.02734546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8340913.696151063</v>
+        <v>2655626.111522892</v>
       </c>
       <c r="C6" t="n">
-        <v>13306272.79085277</v>
+        <v>3032640.528379072</v>
       </c>
       <c r="D6" t="n">
-        <v>11525973.30643305</v>
+        <v>1462430.106384737</v>
       </c>
       <c r="E6" t="n">
-        <v>11816610.30226416</v>
+        <v>4713915.29970091</v>
       </c>
       <c r="F6" t="n">
-        <v>13520298.29574521</v>
+        <v>607918.8467831546</v>
       </c>
       <c r="G6" t="n">
-        <v>13329920.25431968</v>
+        <v>1694582.339050499</v>
       </c>
       <c r="H6" t="n">
-        <v>13477776.51748437</v>
+        <v>906230.8285345784</v>
       </c>
       <c r="I6" t="n">
-        <v>13859135.91313315</v>
+        <v>1831890.298461548</v>
       </c>
       <c r="J6" t="n">
-        <v>13908828.64680791</v>
+        <v>-5247.074772613822</v>
       </c>
       <c r="K6" t="n">
-        <v>14481320.0207836</v>
+        <v>2139622.783330148</v>
       </c>
       <c r="L6" t="n">
-        <v>15303548.66056749</v>
+        <v>944468.9234966455</v>
       </c>
       <c r="M6" t="n">
-        <v>22411804.87630855</v>
+        <v>505646.7671738835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1338395.994528896</v>
+        <v>15337219.66880379</v>
       </c>
       <c r="C7" t="n">
-        <v>2735077.632645116</v>
+        <v>16968949.71172442</v>
       </c>
       <c r="D7" t="n">
-        <v>2836688.229479841</v>
+        <v>16455747.06307145</v>
       </c>
       <c r="E7" t="n">
-        <v>3171424.835108101</v>
+        <v>17539267.48145378</v>
       </c>
       <c r="F7" t="n">
-        <v>2095418.022407595</v>
+        <v>16824927.05072243</v>
       </c>
       <c r="G7" t="n">
-        <v>3291964.193776486</v>
+        <v>17423341.48878801</v>
       </c>
       <c r="H7" t="n">
-        <v>2678706.886669914</v>
+        <v>17661131.80779648</v>
       </c>
       <c r="I7" t="n">
-        <v>2543182.834608368</v>
+        <v>17703330.55582896</v>
       </c>
       <c r="J7" t="n">
-        <v>3018941.249719338</v>
+        <v>18717121.51463426</v>
       </c>
       <c r="K7" t="n">
-        <v>2749816.958312186</v>
+        <v>17882168.07483576</v>
       </c>
       <c r="L7" t="n">
-        <v>2912081.976850843</v>
+        <v>20252321.00141511</v>
       </c>
       <c r="M7" t="n">
-        <v>4305824.208469938</v>
+        <v>19697198.25345606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>914211.9271437667</v>
+        <v>20381694.35880144</v>
       </c>
       <c r="C8" t="n">
-        <v>1316313.977690551</v>
+        <v>21870997.12320378</v>
       </c>
       <c r="D8" t="n">
-        <v>1237060.497920788</v>
+        <v>21106144.93389027</v>
       </c>
       <c r="E8" t="n">
-        <v>1320518.461677308</v>
+        <v>19344740.18232525</v>
       </c>
       <c r="F8" t="n">
-        <v>1261959.217301446</v>
+        <v>19671482.49472297</v>
       </c>
       <c r="G8" t="n">
-        <v>1466436.855419828</v>
+        <v>19029825.45579652</v>
       </c>
       <c r="H8" t="n">
-        <v>1660060.888161171</v>
+        <v>17270562.34659918</v>
       </c>
       <c r="I8" t="n">
-        <v>1566025.353107221</v>
+        <v>18260098.8762841</v>
       </c>
       <c r="J8" t="n">
-        <v>1477960.818098793</v>
+        <v>18755831.50789351</v>
       </c>
       <c r="K8" t="n">
-        <v>1951104.797780449</v>
+        <v>20554664.44047224</v>
       </c>
       <c r="L8" t="n">
-        <v>2219415.707696422</v>
+        <v>24078270.13398138</v>
       </c>
       <c r="M8" t="n">
-        <v>1798274.585178105</v>
+        <v>13854864.93846258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11890331.35170741</v>
+        <v>27952346.64524371</v>
       </c>
       <c r="C9" t="n">
-        <v>14890896.75362884</v>
+        <v>30315067.84531377</v>
       </c>
       <c r="D9" t="n">
-        <v>17814279.47522074</v>
+        <v>31271407.95301013</v>
       </c>
       <c r="E9" t="n">
-        <v>20421731.71310499</v>
+        <v>31856351.75808903</v>
       </c>
       <c r="F9" t="n">
-        <v>23136848.73162899</v>
+        <v>34195887.82445183</v>
       </c>
       <c r="G9" t="n">
-        <v>24920576.80559617</v>
+        <v>31855593.622687</v>
       </c>
       <c r="H9" t="n">
-        <v>27120213.65765306</v>
+        <v>33099137.53597713</v>
       </c>
       <c r="I9" t="n">
-        <v>28951310.0597599</v>
+        <v>29512891.5650265</v>
       </c>
       <c r="J9" t="n">
-        <v>30601923.19186465</v>
+        <v>32934215.28812588</v>
       </c>
       <c r="K9" t="n">
-        <v>33118680.08116808</v>
+        <v>32922875.37409212</v>
       </c>
       <c r="L9" t="n">
-        <v>34779372.3700412</v>
+        <v>38926246.47037897</v>
       </c>
       <c r="M9" t="n">
-        <v>37184393.05204204</v>
+        <v>28654616.58329649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12827248.45617045</v>
+        <v>15156840.80259096</v>
       </c>
       <c r="C10" t="n">
-        <v>15023984.72248579</v>
+        <v>16070142.23596789</v>
       </c>
       <c r="D10" t="n">
-        <v>16839691.52834731</v>
+        <v>17162386.3399548</v>
       </c>
       <c r="E10" t="n">
-        <v>16537216.2177265</v>
+        <v>17843116.18658873</v>
       </c>
       <c r="F10" t="n">
-        <v>16801367.02179771</v>
+        <v>17789384.44579978</v>
       </c>
       <c r="G10" t="n">
-        <v>16835683.72716606</v>
+        <v>20067726.27689707</v>
       </c>
       <c r="H10" t="n">
-        <v>16946911.14625455</v>
+        <v>19125266.37069529</v>
       </c>
       <c r="I10" t="n">
-        <v>17985044.73058487</v>
+        <v>17692228.76977674</v>
       </c>
       <c r="J10" t="n">
-        <v>18475188.09159835</v>
+        <v>17765514.75544776</v>
       </c>
       <c r="K10" t="n">
-        <v>17671859.78922297</v>
+        <v>18190405.61376696</v>
       </c>
       <c r="L10" t="n">
-        <v>19079053.04754492</v>
+        <v>18554394.04842903</v>
       </c>
       <c r="M10" t="n">
-        <v>24074856.99095374</v>
+        <v>16381468.78901303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73378.60169722466</v>
+        <v>19672283.22541455</v>
       </c>
       <c r="C11" t="n">
-        <v>1245533.266347318</v>
+        <v>19969079.51309967</v>
       </c>
       <c r="D11" t="n">
-        <v>1144095.421597828</v>
+        <v>20683548.08714155</v>
       </c>
       <c r="E11" t="n">
-        <v>321661.4878662415</v>
+        <v>20998051.18743838</v>
       </c>
       <c r="F11" t="n">
-        <v>3770663.130270511</v>
+        <v>22601980.31106212</v>
       </c>
       <c r="G11" t="n">
-        <v>29785.2700240463</v>
+        <v>22958159.25624369</v>
       </c>
       <c r="H11" t="n">
-        <v>745309.0930168394</v>
+        <v>23069025.12476702</v>
       </c>
       <c r="I11" t="n">
-        <v>439949.8806282048</v>
+        <v>23753152.41080426</v>
       </c>
       <c r="J11" t="n">
-        <v>1230206.589427417</v>
+        <v>25793468.34032248</v>
       </c>
       <c r="K11" t="n">
-        <v>-366274.4609223896</v>
+        <v>26127348.69893607</v>
       </c>
       <c r="L11" t="n">
-        <v>1609233.907081667</v>
+        <v>26517515.02836049</v>
       </c>
       <c r="M11" t="n">
-        <v>214682.3618327092</v>
+        <v>25120622.50731967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415728.957094403</v>
+        <v>43215761.88757092</v>
       </c>
       <c r="C12" t="n">
-        <v>1305104.939813006</v>
+        <v>43891444.4089952</v>
       </c>
       <c r="D12" t="n">
-        <v>1816413.001847984</v>
+        <v>42385499.40351354</v>
       </c>
       <c r="E12" t="n">
-        <v>1095206.838520202</v>
+        <v>38769559.62272684</v>
       </c>
       <c r="F12" t="n">
-        <v>918648.2970338356</v>
+        <v>43665117.49352033</v>
       </c>
       <c r="G12" t="n">
-        <v>569463.8852063632</v>
+        <v>47488941.61443872</v>
       </c>
       <c r="H12" t="n">
-        <v>952078.0498265546</v>
+        <v>42300738.04174463</v>
       </c>
       <c r="I12" t="n">
-        <v>476558.6569482108</v>
+        <v>47690304.70548188</v>
       </c>
       <c r="J12" t="n">
-        <v>615906.9228663405</v>
+        <v>50224958.47156107</v>
       </c>
       <c r="K12" t="n">
-        <v>376031.3878066677</v>
+        <v>52100901.1151749</v>
       </c>
       <c r="L12" t="n">
-        <v>543369.7519051911</v>
+        <v>40784573.86243622</v>
       </c>
       <c r="M12" t="n">
-        <v>738222.1506807397</v>
+        <v>39753996.25506864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3068956.506975806</v>
+        <v>35711972.74854165</v>
       </c>
       <c r="C13" t="n">
-        <v>3384427.53947864</v>
+        <v>36593728.71600405</v>
       </c>
       <c r="D13" t="n">
-        <v>3905819.022542737</v>
+        <v>35517508.91561882</v>
       </c>
       <c r="E13" t="n">
-        <v>4076201.525258896</v>
+        <v>30723809.31126022</v>
       </c>
       <c r="F13" t="n">
-        <v>4638265.612815216</v>
+        <v>35298549.42399849</v>
       </c>
       <c r="G13" t="n">
-        <v>4649563.976930726</v>
+        <v>39298111.29727738</v>
       </c>
       <c r="H13" t="n">
-        <v>5165688.369200214</v>
+        <v>41364849.2743044</v>
       </c>
       <c r="I13" t="n">
-        <v>5306280.482010204</v>
+        <v>42593505.67563224</v>
       </c>
       <c r="J13" t="n">
-        <v>5645431.951351103</v>
+        <v>42896072.3359523</v>
       </c>
       <c r="K13" t="n">
-        <v>6121462.551421119</v>
+        <v>38352019.66861278</v>
       </c>
       <c r="L13" t="n">
-        <v>6217529.044081003</v>
+        <v>34042929.38473515</v>
       </c>
       <c r="M13" t="n">
-        <v>6505883.099071096</v>
+        <v>31259623.0516363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22037.29528506607</v>
+        <v>960374.2579652333</v>
       </c>
       <c r="C14" t="n">
-        <v>941744.7646405874</v>
+        <v>982354.2348338888</v>
       </c>
       <c r="D14" t="n">
-        <v>1773176.4196834</v>
+        <v>961518.9932092633</v>
       </c>
       <c r="E14" t="n">
-        <v>1050536.343574883</v>
+        <v>925075.5769105126</v>
       </c>
       <c r="F14" t="n">
-        <v>362456.5124199055</v>
+        <v>1070874.849857685</v>
       </c>
       <c r="G14" t="n">
-        <v>351571.8491834893</v>
+        <v>1342751.799628142</v>
       </c>
       <c r="H14" t="n">
-        <v>184864.6466665965</v>
+        <v>1038118.589833372</v>
       </c>
       <c r="I14" t="n">
-        <v>242468.8407213</v>
+        <v>1078477.132324261</v>
       </c>
       <c r="J14" t="n">
-        <v>27512.83868628676</v>
+        <v>986050.4910594895</v>
       </c>
       <c r="K14" t="n">
-        <v>748565.2887384752</v>
+        <v>1058198.309123391</v>
       </c>
       <c r="L14" t="n">
-        <v>-88752.14205979003</v>
+        <v>1218317.96150808</v>
       </c>
       <c r="M14" t="n">
-        <v>94627.73038215085</v>
+        <v>830320.3814780968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1103687.054644346</v>
+        <v>4513651.771121933</v>
       </c>
       <c r="C15" t="n">
-        <v>1051675.720155212</v>
+        <v>5336041.421306474</v>
       </c>
       <c r="D15" t="n">
-        <v>1083684.69820634</v>
+        <v>5677609.330006247</v>
       </c>
       <c r="E15" t="n">
-        <v>1152039.517515074</v>
+        <v>4639811.914094863</v>
       </c>
       <c r="F15" t="n">
-        <v>1115981.65279355</v>
+        <v>4869180.295021169</v>
       </c>
       <c r="G15" t="n">
-        <v>1229896.333119714</v>
+        <v>4212726.250884406</v>
       </c>
       <c r="H15" t="n">
-        <v>1276744.112658621</v>
+        <v>5180249.936264608</v>
       </c>
       <c r="I15" t="n">
-        <v>1279606.904519708</v>
+        <v>4836296.308034131</v>
       </c>
       <c r="J15" t="n">
-        <v>1239990.239613585</v>
+        <v>4966101.610096548</v>
       </c>
       <c r="K15" t="n">
-        <v>1192942.53796095</v>
+        <v>5620453.975916506</v>
       </c>
       <c r="L15" t="n">
-        <v>1164499.998096678</v>
+        <v>5459275.874021121</v>
       </c>
       <c r="M15" t="n">
-        <v>1733431.369138768</v>
+        <v>4932772.122269859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1634331.732318227</v>
+        <v>7129982.529615362</v>
       </c>
       <c r="C16" t="n">
-        <v>1820629.955561993</v>
+        <v>7624360.071395841</v>
       </c>
       <c r="D16" t="n">
-        <v>1832886.703744414</v>
+        <v>8996365.918602346</v>
       </c>
       <c r="E16" t="n">
-        <v>1885321.660915723</v>
+        <v>8224095.221102746</v>
       </c>
       <c r="F16" t="n">
-        <v>2006251.178565154</v>
+        <v>8359801.076051267</v>
       </c>
       <c r="G16" t="n">
-        <v>1990714.358797087</v>
+        <v>8779452.897757212</v>
       </c>
       <c r="H16" t="n">
-        <v>2100158.476851502</v>
+        <v>7622864.800112083</v>
       </c>
       <c r="I16" t="n">
-        <v>2108873.138055843</v>
+        <v>10152102.55998029</v>
       </c>
       <c r="J16" t="n">
-        <v>2093585.797670307</v>
+        <v>9667344.63450611</v>
       </c>
       <c r="K16" t="n">
-        <v>2272486.809430583</v>
+        <v>10694865.01717243</v>
       </c>
       <c r="L16" t="n">
-        <v>2174671.530340827</v>
+        <v>10800481.55171089</v>
       </c>
       <c r="M16" t="n">
-        <v>2460159.392560969</v>
+        <v>9139632.568349538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6303733.968365388</v>
+        <v>5718783.929700617</v>
       </c>
       <c r="C17" t="n">
-        <v>6905285.884174465</v>
+        <v>5181348.122595194</v>
       </c>
       <c r="D17" t="n">
-        <v>7050586.90587996</v>
+        <v>5461783.156880056</v>
       </c>
       <c r="E17" t="n">
-        <v>6850221.208137036</v>
+        <v>5245029.352398772</v>
       </c>
       <c r="F17" t="n">
-        <v>7859269.220795035</v>
+        <v>5504931.276927475</v>
       </c>
       <c r="G17" t="n">
-        <v>6929708.253783339</v>
+        <v>5675375.008895449</v>
       </c>
       <c r="H17" t="n">
-        <v>6921093.885276071</v>
+        <v>6061376.030864659</v>
       </c>
       <c r="I17" t="n">
-        <v>6846319.156339925</v>
+        <v>5762827.30844646</v>
       </c>
       <c r="J17" t="n">
-        <v>6719175.247783964</v>
+        <v>6341609.62741353</v>
       </c>
       <c r="K17" t="n">
-        <v>6307491.442741627</v>
+        <v>6415238.877079595</v>
       </c>
       <c r="L17" t="n">
-        <v>6247235.481757517</v>
+        <v>6597279.187003675</v>
       </c>
       <c r="M17" t="n">
-        <v>7202068.374988285</v>
+        <v>5084369.59788533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62027.3611859401</v>
+        <v>3816620.705919744</v>
       </c>
       <c r="C18" t="n">
-        <v>504930.7778056702</v>
+        <v>3559495.474253411</v>
       </c>
       <c r="D18" t="n">
-        <v>600478.063591483</v>
+        <v>3263668.552698324</v>
       </c>
       <c r="E18" t="n">
-        <v>350556.6512760714</v>
+        <v>4058183.916898786</v>
       </c>
       <c r="F18" t="n">
-        <v>-132976.5759430616</v>
+        <v>3505773.019452791</v>
       </c>
       <c r="G18" t="n">
-        <v>73983.98233840501</v>
+        <v>2939142.533801745</v>
       </c>
       <c r="H18" t="n">
-        <v>-446181.0210466837</v>
+        <v>2901288.862986843</v>
       </c>
       <c r="I18" t="n">
-        <v>-614547.6861403922</v>
+        <v>3398624.717031852</v>
       </c>
       <c r="J18" t="n">
-        <v>-393182.3314388</v>
+        <v>3023098.158020075</v>
       </c>
       <c r="K18" t="n">
-        <v>-691407.597289586</v>
+        <v>3297458.599448079</v>
       </c>
       <c r="L18" t="n">
-        <v>-490901.5333981366</v>
+        <v>3345333.700828483</v>
       </c>
       <c r="M18" t="n">
-        <v>1346629.003003011</v>
+        <v>2914221.900935703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-67150.63271454051</v>
+        <v>5213641.558644026</v>
       </c>
       <c r="C19" t="n">
-        <v>-23840.69127296691</v>
+        <v>6692415.977542149</v>
       </c>
       <c r="D19" t="n">
-        <v>126187.0326069408</v>
+        <v>4281377.033642652</v>
       </c>
       <c r="E19" t="n">
-        <v>-47050.35937881401</v>
+        <v>3844032.57282055</v>
       </c>
       <c r="F19" t="n">
-        <v>36038.07081682896</v>
+        <v>5025703.198765963</v>
       </c>
       <c r="G19" t="n">
-        <v>-72268.82675537531</v>
+        <v>5923536.378917704</v>
       </c>
       <c r="H19" t="n">
-        <v>1336.922578147904</v>
+        <v>7437334.900612175</v>
       </c>
       <c r="I19" t="n">
-        <v>-50586.94053408986</v>
+        <v>5165008.02688215</v>
       </c>
       <c r="J19" t="n">
-        <v>203068.0724888816</v>
+        <v>7085708.006589811</v>
       </c>
       <c r="K19" t="n">
-        <v>-13401.53277011358</v>
+        <v>5957529.845385976</v>
       </c>
       <c r="L19" t="n">
-        <v>-48021.67649412921</v>
+        <v>6298278.095481749</v>
       </c>
       <c r="M19" t="n">
-        <v>85750.4125718452</v>
+        <v>4322449.021437321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>660677.8247877653</v>
+        <v>2316718.597660315</v>
       </c>
       <c r="C20" t="n">
-        <v>1930307.550872815</v>
+        <v>2277422.431899477</v>
       </c>
       <c r="D20" t="n">
-        <v>2033883.830160017</v>
+        <v>527691.158700329</v>
       </c>
       <c r="E20" t="n">
-        <v>2203906.868777254</v>
+        <v>786625.6651211</v>
       </c>
       <c r="F20" t="n">
-        <v>1915826.418839232</v>
+        <v>1614800.344989199</v>
       </c>
       <c r="G20" t="n">
-        <v>2270939.704618518</v>
+        <v>590603.9883726558</v>
       </c>
       <c r="H20" t="n">
-        <v>1864920.804803948</v>
+        <v>65080.6456439941</v>
       </c>
       <c r="I20" t="n">
-        <v>2238734.642206474</v>
+        <v>552965.17238467</v>
       </c>
       <c r="J20" t="n">
-        <v>2484417.724489534</v>
+        <v>1330062.685906375</v>
       </c>
       <c r="K20" t="n">
-        <v>2222782.33303287</v>
+        <v>1330782.320006087</v>
       </c>
       <c r="L20" t="n">
-        <v>2328604.641405328</v>
+        <v>270038.2788097782</v>
       </c>
       <c r="M20" t="n">
-        <v>2523245.251096766</v>
+        <v>117020.8650772761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1265163.125854819</v>
+        <v>2904977.937287127</v>
       </c>
       <c r="C21" t="n">
-        <v>1905464.117173821</v>
+        <v>3248861.458919524</v>
       </c>
       <c r="D21" t="n">
-        <v>1500916.498347889</v>
+        <v>3478085.529478691</v>
       </c>
       <c r="E21" t="n">
-        <v>2073041.558734403</v>
+        <v>3739872.302522597</v>
       </c>
       <c r="F21" t="n">
-        <v>2014429.135908926</v>
+        <v>3938488.465996</v>
       </c>
       <c r="G21" t="n">
-        <v>1629164.210832953</v>
+        <v>3205351.226969379</v>
       </c>
       <c r="H21" t="n">
-        <v>1831452.639751002</v>
+        <v>3295299.787705964</v>
       </c>
       <c r="I21" t="n">
-        <v>1401389.072323063</v>
+        <v>2798937.654116917</v>
       </c>
       <c r="J21" t="n">
-        <v>1295490.710470742</v>
+        <v>3774399.380128873</v>
       </c>
       <c r="K21" t="n">
-        <v>2073126.565624586</v>
+        <v>4054529.028837461</v>
       </c>
       <c r="L21" t="n">
-        <v>1488984.149415271</v>
+        <v>4659995.183138322</v>
       </c>
       <c r="M21" t="n">
-        <v>1492878.176940046</v>
+        <v>3183993.530149712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413916.8309781365</v>
+        <v>11293391.34790102</v>
       </c>
       <c r="C22" t="n">
-        <v>-39074.04651418484</v>
+        <v>11221748.88349918</v>
       </c>
       <c r="D22" t="n">
-        <v>438317.6065957576</v>
+        <v>12494055.27678838</v>
       </c>
       <c r="E22" t="n">
-        <v>216781.9172803288</v>
+        <v>10686107.76500335</v>
       </c>
       <c r="F22" t="n">
-        <v>-142253.1255478219</v>
+        <v>12682465.0402949</v>
       </c>
       <c r="G22" t="n">
-        <v>-204240.3489816597</v>
+        <v>11475863.76755918</v>
       </c>
       <c r="H22" t="n">
-        <v>-502947.4394518728</v>
+        <v>11082363.26755301</v>
       </c>
       <c r="I22" t="n">
-        <v>-645401.857584205</v>
+        <v>13741904.76341351</v>
       </c>
       <c r="J22" t="n">
-        <v>-637613.6855442511</v>
+        <v>13772438.69615897</v>
       </c>
       <c r="K22" t="n">
-        <v>-545805.3886288551</v>
+        <v>14162598.72750949</v>
       </c>
       <c r="L22" t="n">
-        <v>64566.71349981782</v>
+        <v>13556059.25945264</v>
       </c>
       <c r="M22" t="n">
-        <v>548651.074235119</v>
+        <v>10569247.15834891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-68455.50136437922</v>
+        <v>6009908.666482196</v>
       </c>
       <c r="C23" t="n">
-        <v>51868.44433861462</v>
+        <v>5631490.116290085</v>
       </c>
       <c r="D23" t="n">
-        <v>12339.99914447644</v>
+        <v>6051383.215701547</v>
       </c>
       <c r="E23" t="n">
-        <v>-54203.33300680348</v>
+        <v>5195666.963150684</v>
       </c>
       <c r="F23" t="n">
-        <v>-20483.64230356508</v>
+        <v>6710942.051021169</v>
       </c>
       <c r="G23" t="n">
-        <v>-68998.28493718864</v>
+        <v>7001412.462383797</v>
       </c>
       <c r="H23" t="n">
-        <v>-68676.43263594477</v>
+        <v>12560675.79113361</v>
       </c>
       <c r="I23" t="n">
-        <v>-68237.42231587699</v>
+        <v>9825768.642836284</v>
       </c>
       <c r="J23" t="n">
-        <v>-67690.6543815394</v>
+        <v>6838635.141090379</v>
       </c>
       <c r="K23" t="n">
-        <v>-66189.80121951505</v>
+        <v>7458827.505326919</v>
       </c>
       <c r="L23" t="n">
-        <v>-60656.80431189966</v>
+        <v>6678290.719519612</v>
       </c>
       <c r="M23" t="n">
-        <v>160539.6418213579</v>
+        <v>3735984.364006846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9384355.656437583</v>
+        <v>10053631.85301252</v>
       </c>
       <c r="C24" t="n">
-        <v>12264916.87459326</v>
+        <v>10655051.864605</v>
       </c>
       <c r="D24" t="n">
-        <v>13753142.2369392</v>
+        <v>11277754.98039778</v>
       </c>
       <c r="E24" t="n">
-        <v>13047288.01470028</v>
+        <v>8716210.803521235</v>
       </c>
       <c r="F24" t="n">
-        <v>12553782.78910155</v>
+        <v>9922076.98489606</v>
       </c>
       <c r="G24" t="n">
-        <v>12822073.73637011</v>
+        <v>10238981.5162905</v>
       </c>
       <c r="H24" t="n">
-        <v>13254788.39740205</v>
+        <v>8842244.34141</v>
       </c>
       <c r="I24" t="n">
-        <v>11869787.89634747</v>
+        <v>10622815.96959319</v>
       </c>
       <c r="J24" t="n">
-        <v>12229489.47606376</v>
+        <v>10080326.06289321</v>
       </c>
       <c r="K24" t="n">
-        <v>11637006.92786888</v>
+        <v>11620874.01661527</v>
       </c>
       <c r="L24" t="n">
-        <v>12897341.04449701</v>
+        <v>13449853.10107737</v>
       </c>
       <c r="M24" t="n">
-        <v>14202744.11299653</v>
+        <v>8596336.062923349</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1870112.425282886</v>
+        <v>4850233.22214183</v>
       </c>
       <c r="C25" t="n">
-        <v>2950403.660599822</v>
+        <v>6134609.114172961</v>
       </c>
       <c r="D25" t="n">
-        <v>2811270.258530461</v>
+        <v>5279114.637116653</v>
       </c>
       <c r="E25" t="n">
-        <v>2830256.24168757</v>
+        <v>3756809.868059191</v>
       </c>
       <c r="F25" t="n">
-        <v>2656596.39656733</v>
+        <v>4208630.300005933</v>
       </c>
       <c r="G25" t="n">
-        <v>2737272.198983568</v>
+        <v>5088270.737785975</v>
       </c>
       <c r="H25" t="n">
-        <v>2561088.220483079</v>
+        <v>5227826.006039243</v>
       </c>
       <c r="I25" t="n">
-        <v>2670307.573038937</v>
+        <v>5916168.549814594</v>
       </c>
       <c r="J25" t="n">
-        <v>2266792.521999255</v>
+        <v>5761136.084263597</v>
       </c>
       <c r="K25" t="n">
-        <v>3439287.232505179</v>
+        <v>5490726.597802163</v>
       </c>
       <c r="L25" t="n">
-        <v>3061580.391661367</v>
+        <v>5898108.163491734</v>
       </c>
       <c r="M25" t="n">
-        <v>2886307.610862129</v>
+        <v>3823936.82118318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11663100.90084779</v>
+        <v>10499254.73971157</v>
       </c>
       <c r="C26" t="n">
-        <v>11819573.83184622</v>
+        <v>10330210.63473335</v>
       </c>
       <c r="D26" t="n">
-        <v>13370228.13932576</v>
+        <v>9047888.280972056</v>
       </c>
       <c r="E26" t="n">
-        <v>15084983.76015819</v>
+        <v>9931769.102889726</v>
       </c>
       <c r="F26" t="n">
-        <v>15034382.28895467</v>
+        <v>9026548.04960091</v>
       </c>
       <c r="G26" t="n">
-        <v>16164532.65826983</v>
+        <v>8448421.880155832</v>
       </c>
       <c r="H26" t="n">
-        <v>14735348.00003446</v>
+        <v>10180175.55548622</v>
       </c>
       <c r="I26" t="n">
-        <v>14836912.49651151</v>
+        <v>10133528.08099355</v>
       </c>
       <c r="J26" t="n">
-        <v>12900529.20737125</v>
+        <v>10220482.5897726</v>
       </c>
       <c r="K26" t="n">
-        <v>13194318.01825977</v>
+        <v>9922239.706044562</v>
       </c>
       <c r="L26" t="n">
-        <v>14363989.28724281</v>
+        <v>11706530.06386151</v>
       </c>
       <c r="M26" t="n">
-        <v>14370181.00388636</v>
+        <v>8004591.075935582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14677335.10326149</v>
+        <v>3592425.915788154</v>
       </c>
       <c r="C27" t="n">
-        <v>15877077.78743493</v>
+        <v>3950501.940942221</v>
       </c>
       <c r="D27" t="n">
-        <v>16510441.75757648</v>
+        <v>3341160.625757392</v>
       </c>
       <c r="E27" t="n">
-        <v>15918924.56891754</v>
+        <v>2932668.472749946</v>
       </c>
       <c r="F27" t="n">
-        <v>15665354.056349</v>
+        <v>2808744.72943094</v>
       </c>
       <c r="G27" t="n">
-        <v>16369100.63678152</v>
+        <v>4109085.87923922</v>
       </c>
       <c r="H27" t="n">
-        <v>16414607.23348001</v>
+        <v>3948731.634933673</v>
       </c>
       <c r="I27" t="n">
-        <v>17581919.49641912</v>
+        <v>3371796.892365628</v>
       </c>
       <c r="J27" t="n">
-        <v>16212799.47426745</v>
+        <v>3424819.964612574</v>
       </c>
       <c r="K27" t="n">
-        <v>19331924.95836087</v>
+        <v>3502496.642937283</v>
       </c>
       <c r="L27" t="n">
-        <v>18309267.16468561</v>
+        <v>4253566.515924365</v>
       </c>
       <c r="M27" t="n">
-        <v>24300794.49839944</v>
+        <v>2353614.025076657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19432551.97735464</v>
+        <v>12628919.20954015</v>
       </c>
       <c r="C28" t="n">
-        <v>19907112.26634271</v>
+        <v>11660437.01083476</v>
       </c>
       <c r="D28" t="n">
-        <v>21278250.04053774</v>
+        <v>12323477.21830207</v>
       </c>
       <c r="E28" t="n">
-        <v>22779147.02212744</v>
+        <v>8982383.426015597</v>
       </c>
       <c r="F28" t="n">
-        <v>23818380.7870358</v>
+        <v>11401325.78418569</v>
       </c>
       <c r="G28" t="n">
-        <v>24073183.39914817</v>
+        <v>13756690.64867126</v>
       </c>
       <c r="H28" t="n">
-        <v>26611455.08849007</v>
+        <v>11912707.23596196</v>
       </c>
       <c r="I28" t="n">
-        <v>25895957.94302603</v>
+        <v>9945610.467174055</v>
       </c>
       <c r="J28" t="n">
-        <v>24634684.1757106</v>
+        <v>9430115.389966397</v>
       </c>
       <c r="K28" t="n">
-        <v>24839915.18792819</v>
+        <v>10626017.3111674</v>
       </c>
       <c r="L28" t="n">
-        <v>25367454.59018265</v>
+        <v>13229794.29391611</v>
       </c>
       <c r="M28" t="n">
-        <v>25801092.23590469</v>
+        <v>8688185.622916199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22476848.94524255</v>
+        <v>1850583.973681253</v>
       </c>
       <c r="C29" t="n">
-        <v>23687911.51067368</v>
+        <v>2029223.829718399</v>
       </c>
       <c r="D29" t="n">
-        <v>24203665.59269406</v>
+        <v>2121809.248937052</v>
       </c>
       <c r="E29" t="n">
-        <v>25123392.8167461</v>
+        <v>2117929.878667559</v>
       </c>
       <c r="F29" t="n">
-        <v>25632045.8989149</v>
+        <v>2231736.026603444</v>
       </c>
       <c r="G29" t="n">
-        <v>27415526.74437738</v>
+        <v>2243247.925596301</v>
       </c>
       <c r="H29" t="n">
-        <v>27945123.32755709</v>
+        <v>2022272.065043042</v>
       </c>
       <c r="I29" t="n">
-        <v>28229940.4202903</v>
+        <v>2074909.924018967</v>
       </c>
       <c r="J29" t="n">
-        <v>29067566.66877132</v>
+        <v>2088666.826257624</v>
       </c>
       <c r="K29" t="n">
-        <v>31251640.08525688</v>
+        <v>2204713.576608884</v>
       </c>
       <c r="L29" t="n">
-        <v>31698398.98995009</v>
+        <v>2117631.16683889</v>
       </c>
       <c r="M29" t="n">
-        <v>32089852.93859135</v>
+        <v>2018903.139660425</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41138659.03552493</v>
+        <v>424366.0358198833</v>
       </c>
       <c r="C30" t="n">
-        <v>44252221.97344819</v>
+        <v>409737.2009510701</v>
       </c>
       <c r="D30" t="n">
-        <v>44920954.24576654</v>
+        <v>509206.3162505477</v>
       </c>
       <c r="E30" t="n">
-        <v>43407703.57294812</v>
+        <v>410929.5589275258</v>
       </c>
       <c r="F30" t="n">
-        <v>39784108.99579173</v>
+        <v>367510.485674637</v>
       </c>
       <c r="G30" t="n">
-        <v>44671684.43939749</v>
+        <v>482616.344522122</v>
       </c>
       <c r="H30" t="n">
-        <v>48487211.01982635</v>
+        <v>442155.493392645</v>
       </c>
       <c r="I30" t="n">
-        <v>43290394.09593131</v>
+        <v>514442.1878342772</v>
       </c>
       <c r="J30" t="n">
-        <v>48671028.43373204</v>
+        <v>400206.5605512414</v>
       </c>
       <c r="K30" t="n">
-        <v>51196432.92324953</v>
+        <v>430480.8884315646</v>
       </c>
       <c r="L30" t="n">
-        <v>53062812.73146988</v>
+        <v>692300.457876139</v>
       </c>
       <c r="M30" t="n">
-        <v>41736641.84883009</v>
+        <v>501034.7032509689</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32419492.32428628</v>
+        <v>879693.644756631</v>
       </c>
       <c r="C31" t="n">
-        <v>35657774.65006453</v>
+        <v>1004885.027584093</v>
       </c>
       <c r="D31" t="n">
-        <v>36574290.23448623</v>
+        <v>873973.8131630756</v>
       </c>
       <c r="E31" t="n">
-        <v>35522100.53986654</v>
+        <v>759078.0889649077</v>
       </c>
       <c r="F31" t="n">
-        <v>30744436.46731388</v>
+        <v>779555.5216027196</v>
       </c>
       <c r="G31" t="n">
-        <v>35329317.70833322</v>
+        <v>705641.0586870076</v>
       </c>
       <c r="H31" t="n">
-        <v>39334717.36381374</v>
+        <v>713049.7530149481</v>
       </c>
       <c r="I31" t="n">
-        <v>41404208.88975356</v>
+        <v>852420.0336612944</v>
       </c>
       <c r="J31" t="n">
-        <v>42633455.87438145</v>
+        <v>975688.7353830207</v>
       </c>
       <c r="K31" t="n">
-        <v>42935138.91197523</v>
+        <v>994650.4316392019</v>
       </c>
       <c r="L31" t="n">
-        <v>38389239.62055365</v>
+        <v>1176888.819748161</v>
       </c>
       <c r="M31" t="n">
-        <v>34077718.57547867</v>
+        <v>1269523.166780564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1540066.151974394</v>
+        <v>1673459.100868526</v>
       </c>
       <c r="C32" t="n">
-        <v>1700739.993499493</v>
+        <v>1856769.608284566</v>
       </c>
       <c r="D32" t="n">
-        <v>1833078.505159006</v>
+        <v>1942540.121972822</v>
       </c>
       <c r="E32" t="n">
-        <v>1917209.454695784</v>
+        <v>1807732.979465071</v>
       </c>
       <c r="F32" t="n">
-        <v>1980358.627935643</v>
+        <v>1869262.909810799</v>
       </c>
       <c r="G32" t="n">
-        <v>2220478.139116611</v>
+        <v>1896235.112864814</v>
       </c>
       <c r="H32" t="n">
-        <v>2581841.59388051</v>
+        <v>1880265.606150144</v>
       </c>
       <c r="I32" t="n">
-        <v>2362057.839061333</v>
+        <v>1998195.164890437</v>
       </c>
       <c r="J32" t="n">
-        <v>2481617.49661949</v>
+        <v>2019443.311491709</v>
       </c>
       <c r="K32" t="n">
-        <v>2463679.613886854</v>
+        <v>1831037.071401298</v>
       </c>
       <c r="L32" t="n">
-        <v>2605466.28657774</v>
+        <v>2046863.91649691</v>
       </c>
       <c r="M32" t="n">
-        <v>2830821.074690362</v>
+        <v>1659996.263209261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4030271.448742768</v>
+        <v>2660290.249866741</v>
       </c>
       <c r="C33" t="n">
-        <v>4017978.117944738</v>
+        <v>2820113.590757246</v>
       </c>
       <c r="D33" t="n">
-        <v>4846727.480194128</v>
+        <v>2868147.191416203</v>
       </c>
       <c r="E33" t="n">
-        <v>5194657.871400848</v>
+        <v>2694011.21862096</v>
       </c>
       <c r="F33" t="n">
-        <v>4163194.290880165</v>
+        <v>3087883.688396106</v>
       </c>
       <c r="G33" t="n">
-        <v>4398884.601152563</v>
+        <v>3231007.42045319</v>
       </c>
       <c r="H33" t="n">
-        <v>3748737.623567039</v>
+        <v>3221477.101522826</v>
       </c>
       <c r="I33" t="n">
-        <v>4722554.601128031</v>
+        <v>3307561.250584458</v>
       </c>
       <c r="J33" t="n">
-        <v>4384895.643790324</v>
+        <v>3073701.181016386</v>
       </c>
       <c r="K33" t="n">
-        <v>4520989.379995667</v>
+        <v>2894284.051859003</v>
       </c>
       <c r="L33" t="n">
-        <v>5181626.944879167</v>
+        <v>3241378.942814068</v>
       </c>
       <c r="M33" t="n">
-        <v>5026733.445324407</v>
+        <v>3052861.514962277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11369412.75654805</v>
+        <v>2352291.077034983</v>
       </c>
       <c r="C34" t="n">
-        <v>10013741.71862308</v>
+        <v>2612902.13619845</v>
       </c>
       <c r="D34" t="n">
-        <v>10461361.40235368</v>
+        <v>2583064.622688619</v>
       </c>
       <c r="E34" t="n">
-        <v>11787358.84850845</v>
+        <v>2799694.222344885</v>
       </c>
       <c r="F34" t="n">
-        <v>10969806.37625892</v>
+        <v>2917521.528639947</v>
       </c>
       <c r="G34" t="n">
-        <v>11060906.63497069</v>
+        <v>2764539.818153033</v>
       </c>
       <c r="H34" t="n">
-        <v>11436649.07861358</v>
+        <v>3193754.86358837</v>
       </c>
       <c r="I34" t="n">
-        <v>10236819.73437072</v>
+        <v>3062449.015653118</v>
       </c>
       <c r="J34" t="n">
-        <v>12723474.87313727</v>
+        <v>3433687.542587934</v>
       </c>
       <c r="K34" t="n">
-        <v>12196800.70111268</v>
+        <v>2863892.39556737</v>
       </c>
       <c r="L34" t="n">
-        <v>13183054.34959194</v>
+        <v>3123196.79287155</v>
       </c>
       <c r="M34" t="n">
-        <v>13248064.40031846</v>
+        <v>2632494.707972197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5301811.59423656</v>
+        <v>1288333.065070875</v>
       </c>
       <c r="C35" t="n">
-        <v>6077090.348291391</v>
+        <v>1618898.939890126</v>
       </c>
       <c r="D35" t="n">
-        <v>5536717.531284595</v>
+        <v>1395240.453490421</v>
       </c>
       <c r="E35" t="n">
-        <v>5814123.104108676</v>
+        <v>1344610.755288301</v>
       </c>
       <c r="F35" t="n">
-        <v>5594251.353455998</v>
+        <v>1260738.081624894</v>
       </c>
       <c r="G35" t="n">
-        <v>5850958.017636301</v>
+        <v>1609592.071122403</v>
       </c>
       <c r="H35" t="n">
-        <v>6018121.176450144</v>
+        <v>1478776.770770701</v>
       </c>
       <c r="I35" t="n">
-        <v>6400748.119051395</v>
+        <v>1727319.333323061</v>
       </c>
       <c r="J35" t="n">
-        <v>6098752.29785166</v>
+        <v>1777422.549704498</v>
       </c>
       <c r="K35" t="n">
-        <v>6674011.973105372</v>
+        <v>1456003.910595351</v>
       </c>
       <c r="L35" t="n">
-        <v>6744036.446065504</v>
+        <v>1654538.466999963</v>
       </c>
       <c r="M35" t="n">
-        <v>6922393.33979574</v>
+        <v>1278652.601281963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3219228.688738442</v>
+        <v>1529995.783138899</v>
       </c>
       <c r="C36" t="n">
-        <v>3708708.548348616</v>
+        <v>1423870.063759521</v>
       </c>
       <c r="D36" t="n">
-        <v>3483896.23452222</v>
+        <v>1393872.338190364</v>
       </c>
       <c r="E36" t="n">
-        <v>3214556.439070275</v>
+        <v>1321966.655141015</v>
       </c>
       <c r="F36" t="n">
-        <v>4030629.25033065</v>
+        <v>1526847.455857068</v>
       </c>
       <c r="G36" t="n">
-        <v>3495612.016266656</v>
+        <v>1444277.346820885</v>
       </c>
       <c r="H36" t="n">
-        <v>2942873.435086396</v>
+        <v>1150820.830701493</v>
       </c>
       <c r="I36" t="n">
-        <v>2915972.872181452</v>
+        <v>1128975.822070753</v>
       </c>
       <c r="J36" t="n">
-        <v>3421802.688141563</v>
+        <v>1373003.667170621</v>
       </c>
       <c r="K36" t="n">
-        <v>3052720.147684404</v>
+        <v>924429.3034494123</v>
       </c>
       <c r="L36" t="n">
-        <v>3331826.526816382</v>
+        <v>948315.3722315507</v>
       </c>
       <c r="M36" t="n">
-        <v>3383044.820112968</v>
+        <v>1051616.269991098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3387807.659327798</v>
+        <v>3401492.881093244</v>
       </c>
       <c r="C37" t="n">
-        <v>4972193.598810645</v>
+        <v>4481710.630432192</v>
       </c>
       <c r="D37" t="n">
-        <v>6438401.227515344</v>
+        <v>3823062.777744836</v>
       </c>
       <c r="E37" t="n">
-        <v>4016346.25142304</v>
+        <v>3311611.967274389</v>
       </c>
       <c r="F37" t="n">
-        <v>3569387.918141935</v>
+        <v>3748152.420381586</v>
       </c>
       <c r="G37" t="n">
-        <v>4742741.897039114</v>
+        <v>4279522.075446227</v>
       </c>
       <c r="H37" t="n">
-        <v>5633456.588382966</v>
+        <v>4489162.440307549</v>
       </c>
       <c r="I37" t="n">
-        <v>7141232.730452532</v>
+        <v>3889223.089685251</v>
       </c>
       <c r="J37" t="n">
-        <v>4863890.281616081</v>
+        <v>4551816.847897395</v>
       </c>
       <c r="K37" t="n">
-        <v>6780474.96652255</v>
+        <v>4035977.836269835</v>
       </c>
       <c r="L37" t="n">
-        <v>5649027.310675167</v>
+        <v>3349874.358848884</v>
       </c>
       <c r="M37" t="n">
-        <v>5987261.688296375</v>
+        <v>3011265.343961188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1241171.27062149</v>
+        <v>4062498.620111616</v>
       </c>
       <c r="C38" t="n">
-        <v>2277273.955750834</v>
+        <v>3908709.614103473</v>
       </c>
       <c r="D38" t="n">
-        <v>2351004.900519302</v>
+        <v>4186526.953559846</v>
       </c>
       <c r="E38" t="n">
-        <v>686490.7584470962</v>
+        <v>4633639.02263514</v>
       </c>
       <c r="F38" t="n">
-        <v>1015546.978944338</v>
+        <v>4511504.562243186</v>
       </c>
       <c r="G38" t="n">
-        <v>1890446.513987173</v>
+        <v>4660117.997722873</v>
       </c>
       <c r="H38" t="n">
-        <v>893103.9223903174</v>
+        <v>4559949.723065734</v>
       </c>
       <c r="I38" t="n">
-        <v>387503.9570745042</v>
+        <v>5207823.367498634</v>
       </c>
       <c r="J38" t="n">
-        <v>885460.4085398249</v>
+        <v>5602980.670203918</v>
       </c>
       <c r="K38" t="n">
-        <v>1659951.615484834</v>
+        <v>4565226.556477277</v>
       </c>
       <c r="L38" t="n">
-        <v>1648662.833291879</v>
+        <v>5499565.619298717</v>
       </c>
       <c r="M38" t="n">
-        <v>573554.433041929</v>
+        <v>4264517.668310966</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873506.751312302</v>
+        <v>4413489.145380538</v>
       </c>
       <c r="C39" t="n">
-        <v>3490497.944634167</v>
+        <v>4837315.22561597</v>
       </c>
       <c r="D39" t="n">
-        <v>3825313.248971319</v>
+        <v>5016221.782199531</v>
       </c>
       <c r="E39" t="n">
-        <v>4045580.962478139</v>
+        <v>5176279.8419632</v>
       </c>
       <c r="F39" t="n">
-        <v>4298530.359781686</v>
+        <v>5224010.269804675</v>
       </c>
       <c r="G39" t="n">
-        <v>4488424.40045184</v>
+        <v>5209037.119188622</v>
       </c>
       <c r="H39" t="n">
-        <v>3746669.055931372</v>
+        <v>5236297.808858017</v>
       </c>
       <c r="I39" t="n">
-        <v>3828108.163137235</v>
+        <v>4830107.939151713</v>
       </c>
       <c r="J39" t="n">
-        <v>3323348.917016021</v>
+        <v>5798601.897635402</v>
       </c>
       <c r="K39" t="n">
-        <v>4290529.558165255</v>
+        <v>4406585.047966228</v>
       </c>
       <c r="L39" t="n">
-        <v>4562478.616945656</v>
+        <v>4517685.793929025</v>
       </c>
       <c r="M39" t="n">
-        <v>5159856.803373999</v>
+        <v>4010077.041893787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10659147.0759604</v>
+        <v>4607794.364761975</v>
       </c>
       <c r="C40" t="n">
-        <v>11948305.44282286</v>
+        <v>5180129.338198777</v>
       </c>
       <c r="D40" t="n">
-        <v>12038079.74814598</v>
+        <v>5259026.399953983</v>
       </c>
       <c r="E40" t="n">
-        <v>13463083.2512512</v>
+        <v>5103619.580340771</v>
       </c>
       <c r="F40" t="n">
-        <v>11799698.81480749</v>
+        <v>5394566.587499423</v>
       </c>
       <c r="G40" t="n">
-        <v>13931706.55902688</v>
+        <v>5083716.852552066</v>
       </c>
       <c r="H40" t="n">
-        <v>12853188.07815398</v>
+        <v>5369984.160038162</v>
       </c>
       <c r="I40" t="n">
-        <v>12579374.84784448</v>
+        <v>5147059.870103135</v>
       </c>
       <c r="J40" t="n">
-        <v>15350625.79093168</v>
+        <v>5534983.722873473</v>
       </c>
       <c r="K40" t="n">
-        <v>15485985.70378148</v>
+        <v>5063424.779370452</v>
       </c>
       <c r="L40" t="n">
-        <v>15973412.11724683</v>
+        <v>5416358.730360352</v>
       </c>
       <c r="M40" t="n">
-        <v>15456832.06079878</v>
+        <v>4444593.079036687</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3621024.821829072</v>
+        <v>2517630.316436522</v>
       </c>
       <c r="C41" t="n">
-        <v>5858382.776523594</v>
+        <v>2958897.573043509</v>
       </c>
       <c r="D41" t="n">
-        <v>5482996.016475714</v>
+        <v>3192601.113866726</v>
       </c>
       <c r="E41" t="n">
-        <v>5905860.229729547</v>
+        <v>2751492.940770572</v>
       </c>
       <c r="F41" t="n">
-        <v>5053055.627230212</v>
+        <v>3072707.30103594</v>
       </c>
       <c r="G41" t="n">
-        <v>6571184.094450995</v>
+        <v>3257211.449822864</v>
       </c>
       <c r="H41" t="n">
-        <v>6864450.776057932</v>
+        <v>3115176.45566798</v>
       </c>
       <c r="I41" t="n">
-        <v>12426454.41153541</v>
+        <v>3507431.647362426</v>
       </c>
       <c r="J41" t="n">
-        <v>9694232.71604294</v>
+        <v>3554631.952121478</v>
       </c>
       <c r="K41" t="n">
-        <v>6709730.92890013</v>
+        <v>2933764.42851552</v>
       </c>
       <c r="L41" t="n">
-        <v>7332502.345715533</v>
+        <v>3650086.349375207</v>
       </c>
       <c r="M41" t="n">
-        <v>6554492.996003375</v>
+        <v>2705883.40689997</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7650116.283072612</v>
+        <v>3427761.788891447</v>
       </c>
       <c r="C42" t="n">
-        <v>9823077.486897081</v>
+        <v>3781852.650224782</v>
       </c>
       <c r="D42" t="n">
-        <v>10429115.45061072</v>
+        <v>3793358.310642343</v>
       </c>
       <c r="E42" t="n">
-        <v>11056343.98494806</v>
+        <v>3821040.599937249</v>
       </c>
       <c r="F42" t="n">
-        <v>8499234.544234261</v>
+        <v>3897586.801528811</v>
       </c>
       <c r="G42" t="n">
-        <v>9709446.595561104</v>
+        <v>3995913.863531831</v>
       </c>
       <c r="H42" t="n">
-        <v>10030609.91234365</v>
+        <v>4384312.670953852</v>
       </c>
       <c r="I42" t="n">
-        <v>8638046.181830285</v>
+        <v>4682147.86278322</v>
       </c>
       <c r="J42" t="n">
-        <v>10422707.62079054</v>
+        <v>4626926.682260336</v>
       </c>
       <c r="K42" t="n">
-        <v>9884225.56797169</v>
+        <v>4277191.518232263</v>
       </c>
       <c r="L42" t="n">
-        <v>11428701.06560351</v>
+        <v>4120519.643565747</v>
       </c>
       <c r="M42" t="n">
-        <v>13261528.99115005</v>
+        <v>3025468.760044817</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4144384.614814877</v>
+        <v>2227424.194786067</v>
       </c>
       <c r="C43" t="n">
-        <v>4753629.954146144</v>
+        <v>3030563.039266507</v>
       </c>
       <c r="D43" t="n">
-        <v>6057333.410524208</v>
+        <v>2726706.022946337</v>
       </c>
       <c r="E43" t="n">
-        <v>5217300.956879816</v>
+        <v>2725052.337246165</v>
       </c>
       <c r="F43" t="n">
-        <v>3707365.777559641</v>
+        <v>2853724.472308029</v>
       </c>
       <c r="G43" t="n">
-        <v>4169081.853662472</v>
+        <v>2875391.900447201</v>
       </c>
       <c r="H43" t="n">
-        <v>5056638.780280592</v>
+        <v>2877487.117942998</v>
       </c>
       <c r="I43" t="n">
-        <v>5202527.21188173</v>
+        <v>2857169.547585651</v>
       </c>
       <c r="J43" t="n">
-        <v>5895936.259991682</v>
+        <v>2947385.945115038</v>
       </c>
       <c r="K43" t="n">
-        <v>5744956.972586159</v>
+        <v>2833154.001079157</v>
       </c>
       <c r="L43" t="n">
-        <v>5477790.000821013</v>
+        <v>3198151.036082201</v>
       </c>
       <c r="M43" t="n">
-        <v>5887765.550858084</v>
+        <v>2171694.724053449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11034457.09145254</v>
+        <v>4991975.16468452</v>
       </c>
       <c r="C44" t="n">
-        <v>13060025.43807463</v>
+        <v>5692508.277892357</v>
       </c>
       <c r="D44" t="n">
-        <v>12985877.52194177</v>
+        <v>5130581.650772407</v>
       </c>
       <c r="E44" t="n">
-        <v>11786993.25093423</v>
+        <v>4897502.730807438</v>
       </c>
       <c r="F44" t="n">
-        <v>12743588.32758789</v>
+        <v>5429161.786138505</v>
       </c>
       <c r="G44" t="n">
-        <v>11901134.41776379</v>
+        <v>6098955.604634804</v>
       </c>
       <c r="H44" t="n">
-        <v>11376586.55489124</v>
+        <v>5491469.270558791</v>
       </c>
       <c r="I44" t="n">
-        <v>13153405.54359282</v>
+        <v>6515796.358257761</v>
       </c>
       <c r="J44" t="n">
-        <v>13143939.98724284</v>
+        <v>5932975.514127414</v>
       </c>
       <c r="K44" t="n">
-        <v>13260808.32554459</v>
+        <v>5751742.13376302</v>
       </c>
       <c r="L44" t="n">
-        <v>12985754.12764317</v>
+        <v>6472254.799497511</v>
       </c>
       <c r="M44" t="n">
-        <v>14787144.43329605</v>
+        <v>4761608.985045909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3666150.575125489</v>
+        <v>2563931.172987391</v>
       </c>
       <c r="C45" t="n">
-        <v>4423572.989601299</v>
+        <v>2891984.414943682</v>
       </c>
       <c r="D45" t="n">
-        <v>4829278.973937031</v>
+        <v>2974893.046340834</v>
       </c>
       <c r="E45" t="n">
-        <v>4248823.005060571</v>
+        <v>2768648.001853934</v>
       </c>
       <c r="F45" t="n">
-        <v>3854164.098652846</v>
+        <v>2755975.969948769</v>
       </c>
       <c r="G45" t="n">
-        <v>3732013.457959624</v>
+        <v>3077338.217902677</v>
       </c>
       <c r="H45" t="n">
-        <v>5024451.018893061</v>
+        <v>3019818.551437945</v>
       </c>
       <c r="I45" t="n">
-        <v>4848453.329530372</v>
+        <v>3438613.414543127</v>
       </c>
       <c r="J45" t="n">
-        <v>4249615.383791799</v>
+        <v>3001771.823384918</v>
       </c>
       <c r="K45" t="n">
-        <v>4275698.642030694</v>
+        <v>2731248.622127553</v>
       </c>
       <c r="L45" t="n">
-        <v>4322410.830319033</v>
+        <v>3195529.864001262</v>
       </c>
       <c r="M45" t="n">
-        <v>5039286.139165888</v>
+        <v>2499442.220040421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9881555.21365412</v>
+        <v>2026860.443033639</v>
       </c>
       <c r="C46" t="n">
-        <v>12748177.57819026</v>
+        <v>2631394.245836425</v>
       </c>
       <c r="D46" t="n">
-        <v>11810417.03146397</v>
+        <v>2005538.243893733</v>
       </c>
       <c r="E46" t="n">
-        <v>12499739.61583084</v>
+        <v>2206284.490616355</v>
       </c>
       <c r="F46" t="n">
-        <v>9180931.943223204</v>
+        <v>2064968.950266919</v>
       </c>
       <c r="G46" t="n">
-        <v>11618574.63855295</v>
+        <v>2115926.218697869</v>
       </c>
       <c r="H46" t="n">
-        <v>13989417.38171282</v>
+        <v>2054770.457925184</v>
       </c>
       <c r="I46" t="n">
-        <v>12158027.12374838</v>
+        <v>2784670.067952516</v>
       </c>
       <c r="J46" t="n">
-        <v>10200950.86862316</v>
+        <v>2543716.960382276</v>
       </c>
       <c r="K46" t="n">
-        <v>9693182.967424564</v>
+        <v>1734620.078317033</v>
       </c>
       <c r="L46" t="n">
-        <v>10894770.93069105</v>
+        <v>2119726.578259777</v>
       </c>
       <c r="M46" t="n">
-        <v>13502421.71922321</v>
+        <v>1669218.308414548</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2321997.292744479</v>
+        <v>1913628.700728785</v>
       </c>
       <c r="C47" t="n">
-        <v>2339501.527895738</v>
+        <v>2042041.07289716</v>
       </c>
       <c r="D47" t="n">
-        <v>2552301.018985999</v>
+        <v>2242956.354334469</v>
       </c>
       <c r="E47" t="n">
-        <v>2676683.856230692</v>
+        <v>2294072.82660218</v>
       </c>
       <c r="F47" t="n">
-        <v>2702026.525609686</v>
+        <v>2075514.919544411</v>
       </c>
       <c r="G47" t="n">
-        <v>2842443.104035917</v>
+        <v>2139412.071619533</v>
       </c>
       <c r="H47" t="n">
-        <v>2878232.62522506</v>
+        <v>2085268.691979263</v>
       </c>
       <c r="I47" t="n">
-        <v>2679056.252566798</v>
+        <v>2159263.709249664</v>
       </c>
       <c r="J47" t="n">
-        <v>2750866.120947084</v>
+        <v>2291739.895306812</v>
       </c>
       <c r="K47" t="n">
-        <v>2781750.822865908</v>
+        <v>2119396.293880329</v>
       </c>
       <c r="L47" t="n">
-        <v>2912724.246062824</v>
+        <v>2130366.470721012</v>
       </c>
       <c r="M47" t="n">
-        <v>2838508.174732238</v>
+        <v>2058560.957250421</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>342380.6259440021</v>
+        <v>4781223.573366041</v>
       </c>
       <c r="C48" t="n">
-        <v>338970.9929838372</v>
+        <v>4913608.437066752</v>
       </c>
       <c r="D48" t="n">
-        <v>325195.362487791</v>
+        <v>5102668.101758517</v>
       </c>
       <c r="E48" t="n">
-        <v>425524.393811234</v>
+        <v>4999334.318957258</v>
       </c>
       <c r="F48" t="n">
-        <v>328114.2959891263</v>
+        <v>4877168.93475722</v>
       </c>
       <c r="G48" t="n">
-        <v>285568.2455163121</v>
+        <v>5018525.811464142</v>
       </c>
       <c r="H48" t="n">
-        <v>401551.9990844544</v>
+        <v>4824463.703431355</v>
       </c>
       <c r="I48" t="n">
-        <v>361973.6649122358</v>
+        <v>5304660.233554699</v>
       </c>
       <c r="J48" t="n">
-        <v>435146.9711235579</v>
+        <v>5763984.755695066</v>
       </c>
       <c r="K48" t="n">
-        <v>321801.9677471772</v>
+        <v>5033259.260537111</v>
       </c>
       <c r="L48" t="n">
-        <v>352970.4620670341</v>
+        <v>5466060.782914553</v>
       </c>
       <c r="M48" t="n">
-        <v>615685.61615554</v>
+        <v>4771750.018584377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>560648.9717975871</v>
+        <v>951932.2380678393</v>
       </c>
       <c r="C49" t="n">
-        <v>764172.9820685381</v>
+        <v>1129792.939450856</v>
       </c>
       <c r="D49" t="n">
-        <v>891668.4187511838</v>
+        <v>1141757.565691558</v>
       </c>
       <c r="E49" t="n">
-        <v>763015.3232081207</v>
+        <v>966297.7942622707</v>
       </c>
       <c r="F49" t="n">
-        <v>650332.7003077096</v>
+        <v>955838.3515852068</v>
       </c>
       <c r="G49" t="n">
-        <v>672979.1157361874</v>
+        <v>985824.0240456813</v>
       </c>
       <c r="H49" t="n">
-        <v>601190.3979812027</v>
+        <v>963274.3433803387</v>
       </c>
       <c r="I49" t="n">
-        <v>610682.4642138716</v>
+        <v>1158907.20875174</v>
       </c>
       <c r="J49" t="n">
-        <v>752094.5895130363</v>
+        <v>1028584.819575567</v>
       </c>
       <c r="K49" t="n">
-        <v>877364.43909208</v>
+        <v>916312.6862675118</v>
       </c>
       <c r="L49" t="n">
-        <v>898287.3990367657</v>
+        <v>1028733.755916892</v>
       </c>
       <c r="M49" t="n">
-        <v>1082447.963585982</v>
+        <v>871734.3779827589</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1571551.54447209</v>
+        <v>2743624.428548596</v>
       </c>
       <c r="C50" t="n">
-        <v>1648501.508453198</v>
+        <v>2808564.793680694</v>
       </c>
       <c r="D50" t="n">
-        <v>1840582.513568611</v>
+        <v>2940804.928492907</v>
       </c>
       <c r="E50" t="n">
-        <v>1934700.763964297</v>
+        <v>2892614.804422441</v>
       </c>
       <c r="F50" t="n">
-        <v>1807837.971807737</v>
+        <v>3160239.311901252</v>
       </c>
       <c r="G50" t="n">
-        <v>1876924.407628094</v>
+        <v>2946261.350558691</v>
       </c>
       <c r="H50" t="n">
-        <v>1911072.384959496</v>
+        <v>3028668.960641851</v>
       </c>
       <c r="I50" t="n">
-        <v>1901910.062184966</v>
+        <v>2976115.058186098</v>
       </c>
       <c r="J50" t="n">
-        <v>2026296.799192989</v>
+        <v>2893006.922344459</v>
       </c>
       <c r="K50" t="n">
-        <v>2053662.756566519</v>
+        <v>2806066.153921384</v>
       </c>
       <c r="L50" t="n">
-        <v>1871050.434291749</v>
+        <v>2877266.524383489</v>
       </c>
       <c r="M50" t="n">
-        <v>2092354.471852385</v>
+        <v>2524831.025015403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2863422.647262848</v>
+        <v>3217353.169086897</v>
       </c>
       <c r="C51" t="n">
-        <v>2761668.804082084</v>
+        <v>3235286.234826815</v>
       </c>
       <c r="D51" t="n">
-        <v>2920275.166766416</v>
+        <v>3515255.641920156</v>
       </c>
       <c r="E51" t="n">
-        <v>2967087.272350098</v>
+        <v>3442345.412315903</v>
       </c>
       <c r="F51" t="n">
-        <v>2791730.29624782</v>
+        <v>3419543.759855968</v>
       </c>
       <c r="G51" t="n">
-        <v>3184382.807398102</v>
+        <v>3388974.714422658</v>
       </c>
       <c r="H51" t="n">
-        <v>3326284.407641734</v>
+        <v>3481685.048859837</v>
       </c>
       <c r="I51" t="n">
-        <v>3315531.430796517</v>
+        <v>3725578.612797185</v>
       </c>
       <c r="J51" t="n">
-        <v>3400388.499737599</v>
+        <v>3826216.434147264</v>
       </c>
       <c r="K51" t="n">
-        <v>3165301.158481001</v>
+        <v>3567139.596351573</v>
       </c>
       <c r="L51" t="n">
-        <v>2984661.588952951</v>
+        <v>3458056.105688122</v>
       </c>
       <c r="M51" t="n">
-        <v>3330531.056699049</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2476940.441015817</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2364043.131507755</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2624418.903783645</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2594350.817126533</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2810754.463033121</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2928360.342493292</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2775161.641332589</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3204164.043446453</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3072649.812298577</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3443684.131419367</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2873688.867644913</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3132797.157945176</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1484691.70531721</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1556333.553382122</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1883855.90936853</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1657141.168928764</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1603445.910901369</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1516497.229457351</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1862260.546805704</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1728340.457809713</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1973766.79332473</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2020741.035393042</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1696188.709572844</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1891580.586205475</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>905047.5481881732</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1131391.19697954</v>
-      </c>
-      <c r="D54" t="n">
-        <v>945094.1058967725</v>
-      </c>
-      <c r="E54" t="n">
-        <v>839219.9461469761</v>
-      </c>
-      <c r="F54" t="n">
-        <v>695869.3397922346</v>
-      </c>
-      <c r="G54" t="n">
-        <v>833515.7431930481</v>
-      </c>
-      <c r="H54" t="n">
-        <v>688658.2861152648</v>
-      </c>
-      <c r="I54" t="n">
-        <v>336816.6829016936</v>
-      </c>
-      <c r="J54" t="n">
-        <v>259802.2300049647</v>
-      </c>
-      <c r="K54" t="n">
-        <v>452733.0848888067</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-42128.01221047464</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-61928.01866084363</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3272966.101452878</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3258028.710267162</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4328030.553456228</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3666935.180907416</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3158401.326548605</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3601434.933923775</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4141552.621978982</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4361223.381067349</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3771893.194407678</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4445175.130814596</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3939770.837093407</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3263616.293895648</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3494057.760999225</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4070479.649246335</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3920256.32335578</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4201435.903907525</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4651712.694470442</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4532550.156767621</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4683944.435762428</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4586370.933661465</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5236656.155966028</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5634048.520331103</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4598355.519593055</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5534579.725958409</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4240380.028978179</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4368915.406621713</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4831482.436624817</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5040084.621113469</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5222390.469710985</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5286273.005555505</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5282503.101827944</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5316987.034749176</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4914846.162898409</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5884900.291828922</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4492508.124557923</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4601799.354864515</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4392138.777461976</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4637844.151828327</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5219016.783995606</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5306309.339048647</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5158872.393657868</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5457379.510663654</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5153695.005094619</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5446747.743448401</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5230242.888441322</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5624234.255620244</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5158403.784537543</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5516740.575548486</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2740200.515945282</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2551721.479755309</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2992321.989949608</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3225371.8061546</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2783622.676898619</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3104208.603543035</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3288096.590984428</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3145457.468483517</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3537120.331523407</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3583739.873023775</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2962302.927083592</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3678066.549450442</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3170949.32290149</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3478690.612913594</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3841775.453210395</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3861791.32623088</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3897519.298871684</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3981664.848677522</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4087162.451867362</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4482319.938620602</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4786518.02103777</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4737279.851571802</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4393163.43668292</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4241761.050555589</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2427931.03992224</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2242285.372671479</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3092772.93137705</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2825224.355694701</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2851114.305330694</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3000359.714013963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3037067.205924066</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3049821.656253501</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3036701.482803545</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3131387.351226203</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3019480.53243099</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3385129.358901227</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4713525.877493856</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5069913.40134629</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5768891.364274899</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5205440.62325068</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4970868.00757797</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5501063.177727347</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6169422.324996223</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5560529.950396791</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6583479.058878105</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5999307.73369448</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5816750.824000762</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6535966.37366267</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2332850.608615202</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2607676.027959181</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2934854.00685128</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3016904.899566512</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2809819.291715588</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2796323.529445764</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3116878.538339857</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3058567.796191605</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3476587.425412147</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3038986.121701387</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2767718.423428677</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3231270.073645484</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1830737.661025895</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2099282.915303586</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2716281.047063827</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2099840.945181188</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2307597.63697203</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2171363.846617359</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2225876.666533673</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2167062.32602999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2898344.217251401</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2658001.768217167</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1848925.689465706</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2233600.757365557</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2361991.037503198</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2386793.292384662</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2508761.125190643</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2703279.340760151</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2748042.317378567</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2523173.351658507</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2580801.014592817</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2520429.316639309</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2588236.048151722</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2714563.446609281</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2536109.627841357</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2541025.88911795</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4940708.466640198</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5187143.626895023</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5313515.871307963</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5496628.939978363</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5387411.264092317</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5259422.135031846</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5395017.205667175</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5195253.472312096</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5669806.851125224</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6123547.862973705</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5387295.515887658</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5814626.103965728</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>840777.6007557919</v>
-      </c>
-      <c r="C67" t="n">
-        <v>959876.9058222839</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1138314.808913733</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1150815.387659995</v>
-      </c>
-      <c r="F67" t="n">
-        <v>975851.3585596653</v>
-      </c>
-      <c r="G67" t="n">
-        <v>965846.6030411655</v>
-      </c>
-      <c r="H67" t="n">
-        <v>996246.6161435212</v>
-      </c>
-      <c r="I67" t="n">
-        <v>974073.3492735674</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1170043.021973789</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1040018.093326787</v>
-      </c>
-      <c r="L67" t="n">
-        <v>928008.7964653323</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1040656.68919927</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2724333.634901548</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2790921.455396824</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2882329.587285325</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3038767.322025354</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3012661.914203042</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3300239.934513636</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3104398.665643934</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3202893.199255395</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3164723.218177608</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3094321.520511182</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3018524.807771049</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3099439.350129196</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2603903.502701749</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2737696.24512266</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2763473.852923051</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3051169.385208598</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2985857.880033709</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2970529.735142587</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2947309.690316597</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3047250.663202672</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3298261.295870491</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3405899.757961491</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3153711.299380004</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3051386.854211186</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>45217696.04126856</v>
-      </c>
-      <c r="C70" t="n">
-        <v>49255058.03959098</v>
-      </c>
-      <c r="D70" t="n">
-        <v>52535971.76873899</v>
-      </c>
-      <c r="E70" t="n">
-        <v>56235047.32375948</v>
-      </c>
-      <c r="F70" t="n">
-        <v>59309278.55364763</v>
-      </c>
-      <c r="G70" t="n">
-        <v>62780865.23523275</v>
-      </c>
-      <c r="H70" t="n">
-        <v>65857491.04071027</v>
-      </c>
-      <c r="I70" t="n">
-        <v>69606745.99749073</v>
-      </c>
-      <c r="J70" t="n">
-        <v>72720156.67702493</v>
-      </c>
-      <c r="K70" t="n">
-        <v>76782540.24221025</v>
-      </c>
-      <c r="L70" t="n">
-        <v>76913440.88162018</v>
-      </c>
-      <c r="M70" t="n">
-        <v>81194901.32032338</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23075905.00103628</v>
-      </c>
-      <c r="C71" t="n">
-        <v>33710564.23601284</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35257821.41666695</v>
-      </c>
-      <c r="E71" t="n">
-        <v>36971889.15766782</v>
-      </c>
-      <c r="F71" t="n">
-        <v>39378438.42225443</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41365322.80157658</v>
-      </c>
-      <c r="H71" t="n">
-        <v>42427071.61281646</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44367900.91119263</v>
-      </c>
-      <c r="J71" t="n">
-        <v>45976399.92743254</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47650794.99652471</v>
-      </c>
-      <c r="L71" t="n">
-        <v>51191640.46353906</v>
-      </c>
-      <c r="M71" t="n">
-        <v>66081746.20428078</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>250524.7267135736</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2301345.646590028</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2704244.267424589</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1157015.263454824</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4428893.885603569</v>
-      </c>
-      <c r="G72" t="n">
-        <v>340982.7079754563</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1443687.868884423</v>
-      </c>
-      <c r="I72" t="n">
-        <v>669551.2382419938</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1607805.542557534</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-218177.6537426943</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1936570.370945693</v>
-      </c>
-      <c r="M72" t="n">
-        <v>750158.3911449616</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11648717.94058855</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13708727.35300196</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15254531.40007225</v>
-      </c>
-      <c r="E73" t="n">
-        <v>14657515.59109935</v>
-      </c>
-      <c r="F73" t="n">
-        <v>15659832.14682432</v>
-      </c>
-      <c r="G73" t="n">
-        <v>14866013.60070622</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15387206.94346149</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15549406.07990109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>15517850.70293694</v>
-      </c>
-      <c r="K73" t="n">
-        <v>16459722.90779244</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15554369.04422818</v>
-      </c>
-      <c r="M73" t="n">
-        <v>17856244.74703401</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>13060938.54171937</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18891326.00236512</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20610436.26628514</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20021909.7680357</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18395040.5921066</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18823833.55616293</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18259077.58050712</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16557401.46280711</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17589881.27409235</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18117518.42928489</v>
-      </c>
-      <c r="L74" t="n">
-        <v>19940100.58338749</v>
-      </c>
-      <c r="M74" t="n">
-        <v>23481583.1923471</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27974965.48854636</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29359426.38209575</v>
-      </c>
-      <c r="D75" t="n">
-        <v>31704797.47793093</v>
-      </c>
-      <c r="E75" t="n">
-        <v>32643787.14100388</v>
-      </c>
-      <c r="F75" t="n">
-        <v>33211400.61664771</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35533618.97072697</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33176013.55137704</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34402236.07540739</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30798705.65022828</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34202747.16899627</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34174103.40490948</v>
-      </c>
-      <c r="M75" t="n">
-        <v>40160199.38619461</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19432551.97735464</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19907112.26634271</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21278250.04053774</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22779147.02212744</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23818380.7870358</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24073183.39914817</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26611455.08849007</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25895957.94302603</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24634684.1757106</v>
-      </c>
-      <c r="K76" t="n">
-        <v>24839915.18792819</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25367454.59018265</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25801092.23590469</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22186626.82932309</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23370150.09927283</v>
-      </c>
-      <c r="D77" t="n">
-        <v>23859876.46375962</v>
-      </c>
-      <c r="E77" t="n">
-        <v>24756597.09200377</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25243803.42698406</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27010458.12594908</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27520326.9192393</v>
-      </c>
-      <c r="I77" t="n">
-        <v>27774815.58482787</v>
-      </c>
-      <c r="J77" t="n">
-        <v>28593725.12001088</v>
-      </c>
-      <c r="K77" t="n">
-        <v>30760178.66580991</v>
-      </c>
-      <c r="L77" t="n">
-        <v>31211781.27596717</v>
-      </c>
-      <c r="M77" t="n">
-        <v>31710118.23419632</v>
+        <v>3385424.173738745</v>
       </c>
     </row>
   </sheetData>
